--- a/biology/Médecine/Alberto_Eiguer/Alberto_Eiguer.xlsx
+++ b/biology/Médecine/Alberto_Eiguer/Alberto_Eiguer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alberto Eiguer est un psychiatre, psychanalyste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alberto Eiguer est un psychiatre, psychanalyste français.
 L'un de ses champs de travail porte sur le thème de la perversion narcissique.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est président de la Société française de thérapie familiale et professeur à l’Institut de psychologie de l’Université de Paris V[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est président de la Société française de thérapie familiale et professeur à l’Institut de psychologie de l’Université de Paris V.
 Il a contribué à la Revue française de psychanalyse.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Petit traité des perversions morales, Bayard Jeunesse, (24 septembre 1997),  (ISBN 978-2227137318)
 Du bon usage du narcissisme, Éditions Bayard, 1999,  (ISBN 2-227-13766-5)
